--- a/animations/l_mother_idle_fake_loop.xlsx
+++ b/animations/l_mother_idle_fake_loop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdimauro\Documents\GitHub\witch-lights\animations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2BC532-A1BC-4409-9B28-AC143C270021}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0B3144-F553-4399-88D7-310A13B89933}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28035" windowHeight="17445" xr2:uid="{9B52D310-2341-5941-842B-1AF503053ECF}"/>
   </bookViews>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E795EFCC-A203-CF45-A174-8830B58EBA54}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L18"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
@@ -641,6 +641,516 @@
         <v>8</v>
       </c>
       <c r="M18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L19" s="1">
+        <v>7</v>
+      </c>
+      <c r="M19" s="1">
+        <v>5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L20" s="1">
+        <v>6</v>
+      </c>
+      <c r="M20" s="1">
+        <v>6</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L21" s="1">
+        <v>5</v>
+      </c>
+      <c r="M21" s="1">
+        <v>7</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L22" s="1">
+        <v>4</v>
+      </c>
+      <c r="M22" s="1">
+        <v>8</v>
+      </c>
+      <c r="N22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L23" s="1">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>7</v>
+      </c>
+      <c r="N23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L24" s="1">
+        <v>2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>6</v>
+      </c>
+      <c r="N24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>5</v>
+      </c>
+      <c r="N25" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="M26" s="1">
+        <v>4</v>
+      </c>
+      <c r="N26" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>5</v>
+      </c>
+      <c r="N27" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L28" s="1">
+        <v>2</v>
+      </c>
+      <c r="M28" s="1">
+        <v>6</v>
+      </c>
+      <c r="N28" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L29" s="1">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <v>7</v>
+      </c>
+      <c r="N29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L30" s="1">
+        <v>4</v>
+      </c>
+      <c r="M30" s="1">
+        <v>8</v>
+      </c>
+      <c r="N30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L31" s="1">
+        <v>5</v>
+      </c>
+      <c r="M31" s="1">
+        <v>7</v>
+      </c>
+      <c r="N31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L32" s="1">
+        <v>6</v>
+      </c>
+      <c r="M32" s="1">
+        <v>6</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L33" s="1">
+        <v>7</v>
+      </c>
+      <c r="M33" s="1">
+        <v>5</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L34" s="1">
+        <v>8</v>
+      </c>
+      <c r="M34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L35" s="1">
+        <v>7</v>
+      </c>
+      <c r="M35" s="1">
+        <v>5</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L36" s="1">
+        <v>6</v>
+      </c>
+      <c r="M36" s="1">
+        <v>6</v>
+      </c>
+      <c r="N36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L37" s="1">
+        <v>5</v>
+      </c>
+      <c r="M37" s="1">
+        <v>7</v>
+      </c>
+      <c r="N37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L38" s="1">
+        <v>4</v>
+      </c>
+      <c r="M38" s="1">
+        <v>8</v>
+      </c>
+      <c r="N38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L39" s="1">
+        <v>3</v>
+      </c>
+      <c r="M39" s="1">
+        <v>7</v>
+      </c>
+      <c r="N39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L40" s="1">
+        <v>2</v>
+      </c>
+      <c r="M40" s="1">
+        <v>6</v>
+      </c>
+      <c r="N40" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1">
+        <v>5</v>
+      </c>
+      <c r="N41" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="M42" s="1">
+        <v>4</v>
+      </c>
+      <c r="N42" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>5</v>
+      </c>
+      <c r="N43" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L44" s="1">
+        <v>2</v>
+      </c>
+      <c r="M44" s="1">
+        <v>6</v>
+      </c>
+      <c r="N44" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L45" s="1">
+        <v>3</v>
+      </c>
+      <c r="M45" s="1">
+        <v>7</v>
+      </c>
+      <c r="N45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L46" s="1">
+        <v>4</v>
+      </c>
+      <c r="M46" s="1">
+        <v>8</v>
+      </c>
+      <c r="N46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L47" s="1">
+        <v>5</v>
+      </c>
+      <c r="M47" s="1">
+        <v>7</v>
+      </c>
+      <c r="N47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L48" s="1">
+        <v>6</v>
+      </c>
+      <c r="M48" s="1">
+        <v>6</v>
+      </c>
+      <c r="N48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L49" s="1">
+        <v>7</v>
+      </c>
+      <c r="M49" s="1">
+        <v>5</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L50" s="1">
+        <v>8</v>
+      </c>
+      <c r="M50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L51" s="1">
+        <v>7</v>
+      </c>
+      <c r="M51" s="1">
+        <v>5</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L52" s="1">
+        <v>6</v>
+      </c>
+      <c r="M52" s="1">
+        <v>6</v>
+      </c>
+      <c r="N52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L53" s="1">
+        <v>5</v>
+      </c>
+      <c r="M53" s="1">
+        <v>7</v>
+      </c>
+      <c r="N53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L54" s="1">
+        <v>4</v>
+      </c>
+      <c r="M54" s="1">
+        <v>8</v>
+      </c>
+      <c r="N54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L55" s="1">
+        <v>3</v>
+      </c>
+      <c r="M55" s="1">
+        <v>7</v>
+      </c>
+      <c r="N55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L56" s="1">
+        <v>2</v>
+      </c>
+      <c r="M56" s="1">
+        <v>6</v>
+      </c>
+      <c r="N56" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1">
+        <v>5</v>
+      </c>
+      <c r="N57" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="M58" s="1">
+        <v>4</v>
+      </c>
+      <c r="N58" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>5</v>
+      </c>
+      <c r="N59" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L60" s="1">
+        <v>2</v>
+      </c>
+      <c r="M60" s="1">
+        <v>6</v>
+      </c>
+      <c r="N60" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L61" s="1">
+        <v>3</v>
+      </c>
+      <c r="M61" s="1">
+        <v>7</v>
+      </c>
+      <c r="N61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L62" s="1">
+        <v>4</v>
+      </c>
+      <c r="M62" s="1">
+        <v>8</v>
+      </c>
+      <c r="N62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L63" s="1">
+        <v>5</v>
+      </c>
+      <c r="M63" s="1">
+        <v>7</v>
+      </c>
+      <c r="N63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L64" s="1">
+        <v>6</v>
+      </c>
+      <c r="M64" s="1">
+        <v>6</v>
+      </c>
+      <c r="N64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L65" s="1">
+        <v>7</v>
+      </c>
+      <c r="M65" s="1">
+        <v>5</v>
+      </c>
+      <c r="N65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="12:14" x14ac:dyDescent="0.5">
+      <c r="L66" s="1">
+        <v>8</v>
+      </c>
+      <c r="M66" s="1">
         <v>4</v>
       </c>
     </row>
